--- a/Sacramento_Kings_2025-26_stats.xlsx
+++ b/Sacramento_Kings_2025-26_stats.xlsx
@@ -9,8 +9,12 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Points" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assists" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Points" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rebounds" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3PM" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Points" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Rebounds" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg 3PM" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1710,7 +1714,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1721,153 +1725,623 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Player</t>
+          <t>Game Time (PST)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Avg Points</t>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Dylan Cardwell</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Malik Monk</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Nique Clifford</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Precious Achiuwa</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Zach LaVine</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Dario Šarić</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>DeMar DeRozan</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Domantas Sabonis</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Dennis Schröder</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Russell Westbrook</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Drew Eubanks</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Devin Carter</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Keon Ellis</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Maxime Raynaud</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Zach LaVine</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>25.22222222222222</v>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DeMar DeRozan</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>20.8</v>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>12</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Domantas Sabonis</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>15.28571428571429</v>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>14</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Russell Westbrook</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>15</v>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>18</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>9</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Malik Monk</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>14.5</v>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>11</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dennis Schröder</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>12.7</v>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>13</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Precious Achiuwa</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6.666666666666667</v>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>17</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4</v>
+      </c>
+      <c r="L8" t="n">
+        <v>12</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Keon Ellis</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>6.5</v>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>7</v>
+      </c>
+      <c r="L9" t="n">
+        <v>16</v>
+      </c>
+      <c r="M9" t="n">
+        <v>6</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Drew Eubanks</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>6.3</v>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>7</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nique Clifford</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5.333333333333333</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Maxime Raynaud</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Dylan Cardwell</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1.666666666666667</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Dario Šarić</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1.666666666666667</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Devin Carter</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.8571428571428571</v>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>13</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1876,6 +2350,647 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Game Time (PST)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Dylan Cardwell</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Malik Monk</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Nique Clifford</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Precious Achiuwa</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Zach LaVine</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Dario Šarić</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>DeMar DeRozan</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Domantas Sabonis</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Dennis Schröder</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Russell Westbrook</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Drew Eubanks</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Devin Carter</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Keon Ellis</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Maxime Raynaud</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1897,13 +3012,184 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Avg Assists</t>
+          <t>Avg Points</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Zach LaVine</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>25.22222222222222</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DeMar DeRozan</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Domantas Sabonis</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>15.28571428571429</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Russell Westbrook</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Malik Monk</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Dennis Schröder</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Precious Achiuwa</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Keon Ellis</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Drew Eubanks</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Nique Clifford</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5.333333333333333</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Maxime Raynaud</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Dylan Cardwell</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.666666666666667</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Dario Šarić</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1.666666666666667</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Devin Carter</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Assists</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Dennis Schröder</t>
         </is>
       </c>
@@ -2035,6 +3321,348 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>Precious Achiuwa</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Rebounds</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Domantas Sabonis</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Russell Westbrook</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Precious Achiuwa</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Nique Clifford</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3.833333333333333</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DeMar DeRozan</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Dennis Schröder</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Maxime Raynaud</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Zach LaVine</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3.333333333333333</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Drew Eubanks</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Keon Ellis</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Dylan Cardwell</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1.666666666666667</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Dario Šarić</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.666666666666667</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Malik Monk</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Devin Carter</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg 3PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Zach LaVine</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.444444444444445</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Russell Westbrook</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Malik Monk</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Keon Ellis</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Dennis Schröder</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>DeMar DeRozan</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Nique Clifford</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Dario Šarić</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Domantas Sabonis</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dylan Cardwell</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Precious Achiuwa</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Drew Eubanks</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Devin Carter</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Maxime Raynaud</t>
         </is>
       </c>
       <c r="B15" t="n">

--- a/Sacramento_Kings_2025-26_stats.xlsx
+++ b/Sacramento_Kings_2025-26_stats.xlsx
@@ -15,6 +15,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Rebounds" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg 3PM" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Team Points" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,50 +474,60 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Doug McDermott</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Zach LaVine</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Dario Šarić</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>DeMar DeRozan</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Domantas Sabonis</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Dennis Schröder</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Russell Westbrook</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Drew Eubanks</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Devin Carter</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Keon Ellis</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Daeqwon Plowden</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Maxime Raynaud</t>
         </is>
@@ -546,33 +557,39 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>30</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>29</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>14</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>6</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>4</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>9</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -600,33 +617,39 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>31</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>5</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>7</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>12</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>17</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>7</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>4</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -654,33 +677,39 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>32</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>21</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>10</v>
-      </c>
-      <c r="K4" t="n">
-        <v>18</v>
       </c>
       <c r="L4" t="n">
         <v>18</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>6</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -708,33 +737,39 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>23</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>19</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>10</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>8</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>16</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>4</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>12</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -762,33 +797,39 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>30</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>19</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>18</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>5</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>12</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>5</v>
       </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>8</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -816,33 +857,39 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>31</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>29</v>
-      </c>
-      <c r="J7" t="n">
-        <v>24</v>
       </c>
       <c r="K7" t="n">
         <v>24</v>
       </c>
       <c r="L7" t="n">
+        <v>24</v>
+      </c>
+      <c r="M7" t="n">
         <v>12</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>10</v>
       </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
       <c r="O7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -870,33 +917,39 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>15</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>19</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>13</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>18</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>26</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>10</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>15</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -930,27 +983,33 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>25</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>18</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>23</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>12</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>6</v>
       </c>
     </row>
@@ -978,33 +1037,39 @@
         <v>4</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>9</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>18</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" t="n">
         <v>24</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>16</v>
       </c>
-      <c r="N10" t="n">
-        <v>2</v>
-      </c>
       <c r="O10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1032,34 +1097,160 @@
         <v>12</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>26</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>22</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>20</v>
       </c>
-      <c r="K11" t="n">
-        <v>3</v>
-      </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
         <v>6</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>12</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>12</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>18</v>
+      </c>
+      <c r="K12" t="n">
+        <v>19</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>14</v>
+      </c>
+      <c r="N12" t="n">
+        <v>19</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>9</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>12</v>
+      </c>
+      <c r="L13" t="n">
+        <v>9</v>
+      </c>
+      <c r="M13" t="n">
+        <v>10</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>11</v>
+      </c>
+      <c r="P13" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1264,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1114,50 +1305,60 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Doug McDermott</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Zach LaVine</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Dario Šarić</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>DeMar DeRozan</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Domantas Sabonis</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Dennis Schröder</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Russell Westbrook</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Drew Eubanks</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Devin Carter</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Keon Ellis</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Daeqwon Plowden</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Maxime Raynaud</t>
         </is>
@@ -1187,25 +1388,25 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>9</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>7</v>
       </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -1214,6 +1415,12 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1241,33 +1448,39 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
         <v>6</v>
       </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M3" t="n">
         <v>4</v>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1301,27 +1514,33 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
       </c>
       <c r="K4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L4" t="n">
         <v>12</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>6</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1349,13 +1568,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>3</v>
@@ -1364,18 +1583,24 @@
         <v>3</v>
       </c>
       <c r="L5" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" t="n">
         <v>4</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1403,33 +1628,39 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>5</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>6</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>7</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>4</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>1</v>
       </c>
       <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1457,33 +1688,39 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
         <v>6</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>7</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>10</v>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1511,26 +1748,26 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>4</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>5</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>9</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>6</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
@@ -1538,6 +1775,12 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1571,27 +1814,33 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>7</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>10</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1619,33 +1868,39 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>8</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>9</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,34 +1928,160 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
         <v>2</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3</v>
+      </c>
+      <c r="M12" t="n">
+        <v>11</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>3</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1714,7 +2095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1755,50 +2136,60 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Doug McDermott</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Zach LaVine</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Dario Šarić</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>DeMar DeRozan</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Domantas Sabonis</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Dennis Schröder</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Russell Westbrook</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Drew Eubanks</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Devin Carter</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Keon Ellis</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Daeqwon Plowden</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Maxime Raynaud</t>
         </is>
@@ -1828,33 +2219,39 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" t="n">
         <v>6</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
         <v>6</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>4</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1882,33 +2279,39 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
         <v>12</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>5</v>
       </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1936,33 +2339,39 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>6</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>14</v>
       </c>
-      <c r="K4" t="n">
-        <v>2</v>
-      </c>
       <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="n">
         <v>6</v>
       </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1990,33 +2399,39 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
         <v>18</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>5</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>9</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>4</v>
       </c>
-      <c r="N5" t="n">
-        <v>1</v>
-      </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2044,33 +2459,39 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>6</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>11</v>
       </c>
-      <c r="K6" t="n">
-        <v>2</v>
-      </c>
       <c r="L6" t="n">
         <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,33 +2519,39 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>4</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>4</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>13</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5</v>
       </c>
       <c r="L7" t="n">
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2152,33 +2579,39 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>5</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
         <v>17</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>4</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>12</v>
       </c>
-      <c r="M8" t="n">
-        <v>2</v>
-      </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2212,27 +2645,33 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>7</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>16</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>6</v>
       </c>
-      <c r="N9" t="n">
-        <v>1</v>
-      </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2260,26 +2699,26 @@
         <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>4</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" t="n">
         <v>7</v>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
       <c r="N10" t="n">
         <v>1</v>
       </c>
@@ -2287,6 +2726,12 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2314,34 +2759,160 @@
         <v>10</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>4</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
         <v>13</v>
       </c>
-      <c r="K11" t="n">
-        <v>3</v>
-      </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>8</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>8</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2</v>
+      </c>
+      <c r="O13" t="n">
+        <v>6</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2355,7 +2926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2396,50 +2967,60 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Doug McDermott</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Zach LaVine</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Dario Šarić</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>DeMar DeRozan</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Domantas Sabonis</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Dennis Schröder</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Russell Westbrook</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Drew Eubanks</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Devin Carter</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Keon Ellis</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Daeqwon Plowden</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Maxime Raynaud</t>
         </is>
@@ -2469,22 +3050,22 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -2493,9 +3074,15 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2523,33 +3110,39 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2577,33 +3170,39 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
+        <v>3</v>
+      </c>
+      <c r="M4" t="n">
         <v>4</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2631,11 +3230,11 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
@@ -2646,18 +3245,24 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>4</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2685,16 +3290,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -2703,15 +3308,21 @@
         <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2739,11 +3350,11 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>6</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
@@ -2751,10 +3362,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -2763,9 +3374,15 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2793,10 +3410,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2808,18 +3425,24 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>5</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2859,13 +3482,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -2874,6 +3497,12 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2901,33 +3530,39 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>4</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
         <v>5</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2955,33 +3590,159 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>6</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2</v>
+      </c>
+      <c r="P13" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2996,7 +3757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3023,7 +3784,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25.22222222222222</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="3">
@@ -3033,7 +3794,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.8</v>
+        <v>19.16666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -3043,7 +3804,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.28571428571429</v>
+        <v>15.33333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -3053,7 +3814,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="6">
@@ -3063,7 +3824,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14.5</v>
+        <v>14.22222222222222</v>
       </c>
     </row>
     <row r="7">
@@ -3073,27 +3834,27 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.7</v>
+        <v>11.33333333333333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Precious Achiuwa</t>
+          <t>Keon Ellis</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.666666666666667</v>
+        <v>7.333333333333333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Keon Ellis</t>
+          <t>Precious Achiuwa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="10">
@@ -3103,57 +3864,77 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.3</v>
+        <v>6.833333333333333</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nique Clifford</t>
+          <t>Doug McDermott</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.333333333333333</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Maxime Raynaud</t>
+          <t>Nique Clifford</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dylan Cardwell</t>
+          <t>Maxime Raynaud</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.666666666666667</v>
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dario Šarić</t>
+          <t>Devin Carter</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.666666666666667</v>
+        <v>2.125</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Devin Carter</t>
+          <t>Daeqwon Plowden</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8571428571428571</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Dylan Cardwell</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1.666666666666667</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Dario Šarić</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1.666666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -3167,7 +3948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3194,7 +3975,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3204,7 +3985,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="4">
@@ -3214,7 +3995,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.857142857142857</v>
+        <v>3.666666666666667</v>
       </c>
     </row>
     <row r="5">
@@ -3224,27 +4005,27 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.6</v>
+        <v>3.333333333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Malik Monk</t>
+          <t>Nique Clifford</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nique Clifford</t>
+          <t>Malik Monk</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.5</v>
+        <v>2.444444444444445</v>
       </c>
     </row>
     <row r="8">
@@ -3254,7 +4035,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="9">
@@ -3264,66 +4045,86 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8571428571428571</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Keon Ellis</t>
+          <t>Precious Achiuwa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dario Šarić</t>
+          <t>Keon Ellis</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Maxime Raynaud</t>
+          <t>Dario Šarić</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Drew Eubanks</t>
+          <t>Maxime Raynaud</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dylan Cardwell</t>
+          <t>Drew Eubanks</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Precious Achiuwa</t>
+          <t>Dylan Cardwell</t>
         </is>
       </c>
       <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Doug McDermott</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Daeqwon Plowden</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3338,7 +4139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3365,7 +4166,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14</v>
+        <v>12.33333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -3375,7 +4176,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.4</v>
+        <v>6.166666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -3385,7 +4186,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.666666666666667</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3395,47 +4196,47 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.833333333333333</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DeMar DeRozan</t>
+          <t>Maxime Raynaud</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.8</v>
+        <v>3.666666666666667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dennis Schröder</t>
+          <t>DeMar DeRozan</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.6</v>
+        <v>3.416666666666667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Maxime Raynaud</t>
+          <t>Zach LaVine</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Zach LaVine</t>
+          <t>Dennis Schröder</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.333333333333333</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="10">
@@ -3445,17 +4246,17 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.6</v>
+        <v>2.916666666666667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Keon Ellis</t>
+          <t>Daeqwon Plowden</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -3481,21 +4282,41 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Malik Monk</t>
+          <t>Keon Ellis</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.625</v>
+        <v>1.583333333333333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Malik Monk</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1.555555555555556</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>Devin Carter</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>0.8571428571428571</v>
+      <c r="B16" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Doug McDermott</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3509,7 +4330,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3536,113 +4357,113 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.444444444444445</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Russell Westbrook</t>
+          <t>Malik Monk</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.3</v>
+        <v>2.222222222222222</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Malik Monk</t>
+          <t>Russell Westbrook</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.25</v>
+        <v>2.083333333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Keon Ellis</t>
+          <t>Doug McDermott</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dennis Schröder</t>
+          <t>Keon Ellis</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DeMar DeRozan</t>
+          <t>Dennis Schröder</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nique Clifford</t>
+          <t>DeMar DeRozan</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dario Šarić</t>
+          <t>Nique Clifford</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Domantas Sabonis</t>
+          <t>Dario Šarić</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dylan Cardwell</t>
+          <t>Domantas Sabonis</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Precious Achiuwa</t>
+          <t>Devin Carter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Drew Eubanks</t>
+          <t>Dylan Cardwell</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -3652,7 +4473,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Devin Carter</t>
+          <t>Precious Achiuwa</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -3662,11 +4483,329 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Drew Eubanks</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Daeqwon Plowden</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>Maxime Raynaud</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>0</v>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Game Time (PST)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Team Points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Game Total Points</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>116</v>
+      </c>
+      <c r="D2" t="n">
+        <v>120</v>
+      </c>
+      <c r="E2" t="n">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>105</v>
+      </c>
+      <c r="D3" t="n">
+        <v>104</v>
+      </c>
+      <c r="E3" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>120</v>
+      </c>
+      <c r="D4" t="n">
+        <v>127</v>
+      </c>
+      <c r="E4" t="n">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>101</v>
+      </c>
+      <c r="D5" t="n">
+        <v>107</v>
+      </c>
+      <c r="E5" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>113</v>
+      </c>
+      <c r="D6" t="n">
+        <v>126</v>
+      </c>
+      <c r="E6" t="n">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>135</v>
+      </c>
+      <c r="D7" t="n">
+        <v>133</v>
+      </c>
+      <c r="E7" t="n">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>124</v>
+      </c>
+      <c r="D8" t="n">
+        <v>130</v>
+      </c>
+      <c r="E8" t="n">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>121</v>
+      </c>
+      <c r="D9" t="n">
+        <v>116</v>
+      </c>
+      <c r="E9" t="n">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>101</v>
+      </c>
+      <c r="D10" t="n">
+        <v>132</v>
+      </c>
+      <c r="E10" t="n">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>117</v>
+      </c>
+      <c r="D11" t="n">
+        <v>144</v>
+      </c>
+      <c r="E11" t="n">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>108</v>
+      </c>
+      <c r="D12" t="n">
+        <v>122</v>
+      </c>
+      <c r="E12" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>100</v>
+      </c>
+      <c r="D13" t="n">
+        <v>133</v>
+      </c>
+      <c r="E13" t="n">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
